--- a/biology/Botanique/Square_Alain-Bashung/Square_Alain-Bashung.xlsx
+++ b/biology/Botanique/Square_Alain-Bashung/Square_Alain-Bashung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Alain-Bashung est un espace vert de 1 500 m2, dans le 18e arrondissement de Paris (France).
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 16, rue de Jessaint.
 Il est desservi par la ligne 2 à la station La Chapelle.
@@ -544,9 +558,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entièrement accessible aux personnes à mobilité réduite, il se compose de trois parties : un milieu forestier de montagne, un milieu sec et un milieu humide[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entièrement accessible aux personnes à mobilité réduite, il se compose de trois parties : un milieu forestier de montagne, un milieu sec et un milieu humide.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin porte le nom de l'auteur-compositeur-interprète et comédien français Alain Bashung (1947-2009) en raison de l'implication locale de l'artiste qui résida non loin, dans la villa Poissonnière[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin porte le nom de l'auteur-compositeur-interprète et comédien français Alain Bashung (1947-2009) en raison de l'implication locale de l'artiste qui résida non loin, dans la villa Poissonnière.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ii est inauguré le 21 juin 2012, jour de la Fête de la musique[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ii est inauguré le 21 juin 2012, jour de la Fête de la musique. 
 L'espace vert comporte également un jardin partagé et une aire de jeux pour enfants.
 </t>
         </is>
